--- a/pred_ohlcv/54_21/2020-01-12 ENJ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 ENJ ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>-161013.7852</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-182964.3915</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-182958.1599</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-182761.1599</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-292807.7878</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-202628.5167</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-202961.9771</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-202961.9771</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-204344.1934</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-204344.1934</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-203825.5737</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-203825.5737</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-204856.5447</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-192975.7366</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-188342.7366</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-188842.7366</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-188842.7366</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-182842.7366</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-215646.1643</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-216904.3700999999</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-210238.0946</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-210602.4846</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-210602.4846</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-210844.9089</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-210871.5484</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-210871.5484</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-210871.5484</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-210871.5484</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-210871.5484</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-210871.5484</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-212346.0878</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-212346.0878</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-220490.05</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-220490.05</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-321294.5993</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-321294.5993</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-326366.5878</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-324743.5293</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-12 ENJ ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 ENJ ohlcv.xlsx
@@ -964,7 +964,7 @@
         <v>-202961.9771</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-202961.9771</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-204344.1934</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-204344.1934</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-203825.5737</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-203825.5737</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-204856.5447</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-192975.7366</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-188342.7366</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-188842.7366</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-188842.7366</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-182842.7366</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-199812.8369999999</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-216904.3700999999</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-216904.3700999999</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-210904.3700999999</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-210480.2547</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-210238.0946</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-210602.4846</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-210844.9089</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-210871.5484</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-210871.5484</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-210871.5484</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-210871.5484</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-212346.0878</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-212346.0878</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-321294.5993</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-321294.5993</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-324743.5293</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-316912.8629</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-316912.8629</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-316912.8629</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-309140.4454</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-309140.4454</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-309140.4454</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-309140.4454</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
